--- a/data/trans_dic/PCS12_SP_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3320937839514485</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4324043285150933</v>
+        <v>0.4324043285150932</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.436789503697643</v>
@@ -697,7 +697,7 @@
         <v>0.3402070009248779</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4460243817619667</v>
+        <v>0.4460243817619666</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.362587773152818</v>
+        <v>0.360396512247852</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3214907424047749</v>
+        <v>0.3160376619152574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3032272850392525</v>
+        <v>0.3014281649308802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.413145875563533</v>
+        <v>0.414727368240402</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4294869896817703</v>
+        <v>0.4289547655970153</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3633225623433428</v>
+        <v>0.3697069355915955</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2761739862147313</v>
+        <v>0.2815880162875446</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3892826624006434</v>
+        <v>0.394510612730485</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3980666926607019</v>
+        <v>0.4012121550437815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3531393765661641</v>
+        <v>0.3517701345366933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3035845448949903</v>
+        <v>0.3049147286641674</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4152250360419933</v>
+        <v>0.4175122267107315</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4525695735220395</v>
+        <v>0.4535586306104385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.414599705608821</v>
+        <v>0.4154926795040315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3936421663740581</v>
+        <v>0.3983905998784116</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4994733177465335</v>
+        <v>0.5027926176314912</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5416273296644468</v>
+        <v>0.5435570982210777</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4905814798806988</v>
+        <v>0.490624232349232</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3852596761851689</v>
+        <v>0.3924114282222116</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4675797543571177</v>
+        <v>0.4701065448500157</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4694801488512877</v>
+        <v>0.470664046978477</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4293082460005361</v>
+        <v>0.4259733753543211</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3771847198118133</v>
+        <v>0.3744083852492341</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.47701793812076</v>
+        <v>0.4761440728727682</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3288503748047008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4248701580897019</v>
+        <v>0.4248701580897018</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4060687036095172</v>
@@ -833,7 +833,7 @@
         <v>0.3507694834784206</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4403323437324983</v>
+        <v>0.4403323437324982</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3430929924558291</v>
+        <v>0.348340259250203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3924074883693568</v>
+        <v>0.395476003960973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2802000612090763</v>
+        <v>0.2838887860777078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3815448211556505</v>
+        <v>0.3762037119203137</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3575083857067182</v>
+        <v>0.3573032044391886</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3506503690722552</v>
+        <v>0.3500328908865956</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3237763590144194</v>
+        <v>0.3244199896496671</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4193778379307497</v>
+        <v>0.4153195903908134</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3631215489721753</v>
+        <v>0.3667317536835423</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.394064477697451</v>
+        <v>0.3927501025750362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3190512734675536</v>
+        <v>0.3146876254685175</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4099917022462019</v>
+        <v>0.4114079175794336</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4497497039031072</v>
+        <v>0.4486511360760725</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4963841957099603</v>
+        <v>0.5016257155929976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3809829723044155</v>
+        <v>0.3835179751526646</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4727939386102147</v>
+        <v>0.4732020549545514</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4549650111706924</v>
+        <v>0.4641861370718197</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4628213016392444</v>
+        <v>0.4674083634604692</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4277496386294976</v>
+        <v>0.4258085121221774</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5018899139299335</v>
+        <v>0.5005633276410772</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.436128760712769</v>
+        <v>0.4367431272039461</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4689755377015331</v>
+        <v>0.4667555573994066</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3892022576586894</v>
+        <v>0.3882835148258337</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4708797054294813</v>
+        <v>0.4702892846352504</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3956679459933288</v>
+        <v>0.3994134292069377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4555479625876921</v>
+        <v>0.4598365262297789</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3938978322008495</v>
+        <v>0.3944829559948553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.427820990011367</v>
+        <v>0.4282402951510244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4854376308132617</v>
+        <v>0.4788088250625122</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4942371376535811</v>
+        <v>0.4990223276894571</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4017541750601658</v>
+        <v>0.4004251361220413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.509805013430169</v>
+        <v>0.5084800616144637</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4301403094083661</v>
+        <v>0.4294412900492574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4810229862236876</v>
+        <v>0.4793885830462605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4097016591657309</v>
+        <v>0.4086954161516732</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4633072983101099</v>
+        <v>0.4657772945538528</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4837124946406105</v>
+        <v>0.4798292252723265</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5392731116784695</v>
+        <v>0.5380590969758463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4786786294757575</v>
+        <v>0.4820643379380934</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5175104605103813</v>
+        <v>0.5283373228323883</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6308383378561441</v>
+        <v>0.6323725115874963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6216113615326462</v>
+        <v>0.6218555464051115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.564113663616541</v>
+        <v>0.5579406751242535</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6323840159366739</v>
+        <v>0.6394980897202694</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5082632490864215</v>
+        <v>0.5068226043137852</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5507923497056892</v>
+        <v>0.5502205293964507</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4897581372696636</v>
+        <v>0.4887455808266056</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5385527330791422</v>
+        <v>0.5372874076164874</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4419216833122371</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5193735356051556</v>
+        <v>0.5193735356051558</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5013194259818349</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4503436147724057</v>
+        <v>0.4521446289716989</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4396224153637113</v>
+        <v>0.4404890307996852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4049976888802544</v>
+        <v>0.4040718257904694</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.444157489593951</v>
+        <v>0.4435583950857416</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5007431713043634</v>
+        <v>0.5056513297178034</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4409062513359556</v>
+        <v>0.4401359653405958</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4070689066748308</v>
+        <v>0.409241509073925</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4879230035347842</v>
+        <v>0.4886636007157965</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4800809852790269</v>
+        <v>0.4808122609276173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4514788065039686</v>
+        <v>0.4511477699788742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.412845236016501</v>
+        <v>0.4154713212711655</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4751333967758147</v>
+        <v>0.4725516667717609</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5076362663426772</v>
+        <v>0.5051002442890064</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5007014404392484</v>
+        <v>0.5016562236749148</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4638597551731508</v>
+        <v>0.4598493598016211</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5093437134292685</v>
+        <v>0.510519433492495</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5783501876268347</v>
+        <v>0.5807528906036937</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5139663104505785</v>
+        <v>0.5163574534109866</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4758926507152036</v>
+        <v>0.478493020002511</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5510665747224267</v>
+        <v>0.5471341038262653</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5257993654666879</v>
+        <v>0.5265672331765292</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5002424418679373</v>
+        <v>0.4978976698156015</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4596670423790777</v>
+        <v>0.4592990459145871</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5210672628839641</v>
+        <v>0.5155704765497469</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.418101802003618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5177687199232296</v>
+        <v>0.5177687199232297</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5848844969144625</v>
@@ -1229,7 +1229,7 @@
         <v>0.550248806490673</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6082293458594219</v>
+        <v>0.608229345859422</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5502897635676256</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4419841065972575</v>
+        <v>0.4442481710694845</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4232571832274988</v>
+        <v>0.4215863938936208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3782415656312789</v>
+        <v>0.3786831878721098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4723057947871049</v>
+        <v>0.4726278761825665</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5449350190274895</v>
+        <v>0.5449399332544955</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.585641505141721</v>
+        <v>0.5845487052714524</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.512923159140721</v>
+        <v>0.5150643444784302</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5792569800087967</v>
+        <v>0.5805679757995788</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5127572857743542</v>
+        <v>0.5162901873757862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5317895365029829</v>
+        <v>0.5342639422889672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4619093397052786</v>
+        <v>0.4625300610640822</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5441013757280395</v>
+        <v>0.5459897818543719</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.550266184035633</v>
+        <v>0.5488127205724382</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5145760163483364</v>
+        <v>0.5117844351527157</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4585011653388238</v>
+        <v>0.4608009004623494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5659746274190109</v>
+        <v>0.565751984587284</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6294725685687137</v>
+        <v>0.6275194843968938</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.658357044928055</v>
+        <v>0.6588458785396364</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5864464905718393</v>
+        <v>0.5871786205245545</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6391641310428473</v>
+        <v>0.6372254537041869</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.584717336102246</v>
+        <v>0.5836045433966062</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5885021690140597</v>
+        <v>0.5898067724425663</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5200871567545718</v>
+        <v>0.5165117655942437</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5945282868433094</v>
+        <v>0.5961958290364958</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4690102676636815</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4759314430507008</v>
+        <v>0.475931443050701</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1331217759670625</v>
+        <v>0.1351989873041051</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1867480586460875</v>
+        <v>0.1835349910692637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.166795172244485</v>
+        <v>0.1642837748422115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1308779819652644</v>
+        <v>0.1268029632122792</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.625914741160434</v>
+        <v>0.6232364383039881</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.570235757239017</v>
+        <v>0.5671666846202417</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.509530967619289</v>
+        <v>0.5075002024241901</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.521348023193645</v>
+        <v>0.5187458029487976</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5367136126610074</v>
+        <v>0.5355331889526256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5024478306449173</v>
+        <v>0.5018057164485206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4396194905227324</v>
+        <v>0.4433051660361233</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.444258024024703</v>
+        <v>0.441577787787275</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2211140220446948</v>
+        <v>0.2209044465642529</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2937361810709197</v>
+        <v>0.2924606617239346</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2591216734072603</v>
+        <v>0.265542010622962</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2936535438824319</v>
+        <v>0.2852001173732489</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6787971520997041</v>
+        <v>0.6784823358901954</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6306157067866185</v>
+        <v>0.6275041320947171</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5673260962877734</v>
+        <v>0.5726559709917302</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5907775331795336</v>
+        <v>0.5897437036114599</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5854680764393189</v>
+        <v>0.5834050589460931</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5554738463038461</v>
+        <v>0.556040736175186</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4956526989912503</v>
+        <v>0.4976708495732516</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5134662038015203</v>
+        <v>0.5095597387359407</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4086384830836793</v>
+        <v>0.4094519774460779</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4227603608912852</v>
+        <v>0.4218581750471113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3736454014471821</v>
+        <v>0.3717005318152013</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.435812884885028</v>
+        <v>0.4341575612593666</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5522306638778772</v>
+        <v>0.551919330871489</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5257269576872334</v>
+        <v>0.5249702551339048</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4599461339399949</v>
+        <v>0.4587934190071315</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5177682117721865</v>
+        <v>0.5167188807178783</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4873914167618719</v>
+        <v>0.4884296128865869</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4796882790699737</v>
+        <v>0.4796184460630412</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4217678470449291</v>
+        <v>0.4218567067008375</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4817355410738327</v>
+        <v>0.4815636225527544</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4434961737845433</v>
+        <v>0.4425981663782144</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4582317437543043</v>
+        <v>0.4586495034769441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.406497296074153</v>
+        <v>0.4057549328143943</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4728825864999594</v>
+        <v>0.470921000051979</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5858048038257199</v>
+        <v>0.5875005928433691</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5597815934607009</v>
+        <v>0.5577062084255416</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4939465633466995</v>
+        <v>0.4945676308431699</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5456183598883623</v>
+        <v>0.546518408409625</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5123158831052516</v>
+        <v>0.511645265473761</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5047583428275123</v>
+        <v>0.5050030952708822</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4463406762310461</v>
+        <v>0.4466711921218964</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5058120043142291</v>
+        <v>0.5058425186398916</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>171785</v>
+        <v>170747</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140559</v>
+        <v>138175</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>130112</v>
+        <v>129340</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>226472</v>
+        <v>227339</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>131715</v>
+        <v>131552</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>114248</v>
+        <v>116256</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>95848</v>
+        <v>97727</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>189511</v>
+        <v>192056</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>310674</v>
+        <v>313129</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>265443</v>
+        <v>264413</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>235626</v>
+        <v>236659</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>429753</v>
+        <v>432120</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>214417</v>
+        <v>214885</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>181268</v>
+        <v>181658</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>168909</v>
+        <v>170946</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>273794</v>
+        <v>275613</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>166106</v>
+        <v>166698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>154265</v>
+        <v>154279</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>133706</v>
+        <v>136188</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>227628</v>
+        <v>228858</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>366409</v>
+        <v>367333</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>322696</v>
+        <v>320189</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>292751</v>
+        <v>290596</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>493707</v>
+        <v>492803</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>125892</v>
+        <v>127818</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>164339</v>
+        <v>165624</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>105699</v>
+        <v>107091</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>183984</v>
+        <v>181408</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>132945</v>
+        <v>132869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>118524</v>
+        <v>118315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>120533</v>
+        <v>120773</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>177181</v>
+        <v>175467</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>268274</v>
+        <v>270941</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>298231</v>
+        <v>297236</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>239129</v>
+        <v>235858</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>370917</v>
+        <v>372198</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>165028</v>
+        <v>164625</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>207884</v>
+        <v>210079</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>143717</v>
+        <v>144673</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>227985</v>
+        <v>228182</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>169186</v>
+        <v>172615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>156439</v>
+        <v>157989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>159240</v>
+        <v>158517</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>212041</v>
+        <v>211481</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>322211</v>
+        <v>322665</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>354924</v>
+        <v>353244</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>291707</v>
+        <v>291018</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>426002</v>
+        <v>425468</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>214606</v>
+        <v>216637</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>286729</v>
+        <v>289428</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>205581</v>
+        <v>205886</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>200506</v>
+        <v>200703</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>81448</v>
+        <v>80336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>128565</v>
+        <v>129810</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66741</v>
+        <v>66520</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>95053</v>
+        <v>94806</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>305473</v>
+        <v>304977</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>427891</v>
+        <v>426437</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>281889</v>
+        <v>281197</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>303521</v>
+        <v>305139</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>262360</v>
+        <v>260254</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>339427</v>
+        <v>338662</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>249829</v>
+        <v>251596</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>242541</v>
+        <v>247615</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>105843</v>
+        <v>106101</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>161699</v>
+        <v>161763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>93712</v>
+        <v>92687</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>117907</v>
+        <v>119234</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>360954</v>
+        <v>359931</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>489954</v>
+        <v>489445</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>336971</v>
+        <v>336275</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>352816</v>
+        <v>351987</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>557676</v>
+        <v>559906</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>509526</v>
+        <v>510531</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>465601</v>
+        <v>464536</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>500246</v>
+        <v>499571</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>357673</v>
+        <v>361179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>338024</v>
+        <v>337433</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>336188</v>
+        <v>337983</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>419063</v>
+        <v>419699</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>937416</v>
+        <v>938844</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>869398</v>
+        <v>868760</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>815582</v>
+        <v>820769</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>943212</v>
+        <v>938086</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>628623</v>
+        <v>625483</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>580317</v>
+        <v>581424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>533271</v>
+        <v>528660</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>573664</v>
+        <v>574988</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>413107</v>
+        <v>414823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>394036</v>
+        <v>395869</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>393028</v>
+        <v>395176</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>473295</v>
+        <v>469918</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1026686</v>
+        <v>1028186</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>963300</v>
+        <v>958785</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>908079</v>
+        <v>907352</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1034397</v>
+        <v>1023485</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>154940</v>
+        <v>155733</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>216113</v>
+        <v>215260</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>234777</v>
+        <v>235051</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>265877</v>
+        <v>266059</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>309933</v>
+        <v>309936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>445979</v>
+        <v>445147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>378662</v>
+        <v>380243</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>478441</v>
+        <v>479524</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>471381</v>
+        <v>474629</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>676499</v>
+        <v>679647</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>627712</v>
+        <v>628555</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>755698</v>
+        <v>758321</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>192899</v>
+        <v>192389</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>262740</v>
+        <v>261315</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>284594</v>
+        <v>286022</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>318607</v>
+        <v>318482</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>358014</v>
+        <v>356903</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>501353</v>
+        <v>501726</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>432941</v>
+        <v>433481</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>527922</v>
+        <v>526321</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>537535</v>
+        <v>536512</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>748644</v>
+        <v>750304</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>706772</v>
+        <v>701914</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>825736</v>
+        <v>828052</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39697</v>
+        <v>40316</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>49840</v>
+        <v>48982</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>47894</v>
+        <v>47173</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>31048</v>
+        <v>30081</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>781617</v>
+        <v>778273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>632592</v>
+        <v>629187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>551325</v>
+        <v>549128</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>435422</v>
+        <v>433248</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>830274</v>
+        <v>828448</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>691485</v>
+        <v>690602</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>601914</v>
+        <v>606960</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>476428</v>
+        <v>473553</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>65936</v>
+        <v>65874</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>78393</v>
+        <v>78052</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>74405</v>
+        <v>76249</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>69663</v>
+        <v>67657</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>847655</v>
+        <v>847262</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>699574</v>
+        <v>696122</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>613861</v>
+        <v>619628</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>493408</v>
+        <v>492545</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>905696</v>
+        <v>902504</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>764461</v>
+        <v>765242</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>678633</v>
+        <v>681396</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>550647</v>
+        <v>546458</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1336325</v>
+        <v>1338986</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1446648</v>
+        <v>1443561</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1265059</v>
+        <v>1258475</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1492870</v>
+        <v>1487200</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1865504</v>
+        <v>1864452</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1866396</v>
+        <v>1863710</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1624344</v>
+        <v>1620273</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1872130</v>
+        <v>1868336</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3240331</v>
+        <v>3247233</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3344403</v>
+        <v>3343917</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2917502</v>
+        <v>2918117</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3392022</v>
+        <v>3390811</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1450317</v>
+        <v>1447380</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1568028</v>
+        <v>1569457</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1376287</v>
+        <v>1373773</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1619852</v>
+        <v>1613132</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1978921</v>
+        <v>1984650</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1987295</v>
+        <v>1979927</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1744420</v>
+        <v>1746613</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1972830</v>
+        <v>1976084</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3406037</v>
+        <v>3401578</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>3519193</v>
+        <v>3520899</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3087480</v>
+        <v>3089767</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>3561550</v>
+        <v>3561765</v>
       </c>
     </row>
     <row r="32">
